--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Lrfn3-Lrfn3.xlsx
@@ -525,52 +525,52 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G2">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="H2">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="I2">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="J2">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="K2">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L2">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M2">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="N2">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="O2">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="P2">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="Q2">
-        <v>0.03752330582044444</v>
+        <v>0.006155814681</v>
       </c>
       <c r="R2">
-        <v>0.337709752384</v>
+        <v>0.055402332129</v>
       </c>
       <c r="S2">
-        <v>0.003184043235430514</v>
+        <v>0.0003730181856717404</v>
       </c>
       <c r="T2">
-        <v>0.003184043235430514</v>
+        <v>0.0003730181856717404</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -587,22 +587,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G3">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="H3">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="I3">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="J3">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -617,22 +617,22 @@
         <v>6.569107</v>
       </c>
       <c r="O3">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="P3">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="Q3">
-        <v>0.4241657791884444</v>
+        <v>0.171801855371</v>
       </c>
       <c r="R3">
-        <v>3.817492012696</v>
+        <v>1.546216698339</v>
       </c>
       <c r="S3">
-        <v>0.03599262246212408</v>
+        <v>0.01041051748736508</v>
       </c>
       <c r="T3">
-        <v>0.03599262246212408</v>
+        <v>0.01041051748736508</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -649,22 +649,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="G4">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="H4">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="I4">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="J4">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -673,28 +673,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="N4">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="O4">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="P4">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="Q4">
-        <v>0.2032955562515555</v>
+        <v>0.140770562434</v>
       </c>
       <c r="R4">
-        <v>1.829660006264</v>
+        <v>1.266935061906</v>
       </c>
       <c r="S4">
-        <v>0.01725066132960942</v>
+        <v>0.008530143046247616</v>
       </c>
       <c r="T4">
-        <v>0.01725066132960942</v>
+        <v>0.008530143046247617</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -723,40 +723,40 @@
         <v>6.569107</v>
       </c>
       <c r="I5">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="J5">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="K5">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L5">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M5">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="N5">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="O5">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="P5">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="Q5">
-        <v>0.4241657791884444</v>
+        <v>0.171801855371</v>
       </c>
       <c r="R5">
-        <v>3.817492012696</v>
+        <v>1.546216698339</v>
       </c>
       <c r="S5">
-        <v>0.03599262246212408</v>
+        <v>0.01041051748736508</v>
       </c>
       <c r="T5">
-        <v>0.03599262246212408</v>
+        <v>0.01041051748736508</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -785,10 +785,10 @@
         <v>6.569107</v>
       </c>
       <c r="I6">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="J6">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -803,10 +803,10 @@
         <v>6.569107</v>
       </c>
       <c r="O6">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="P6">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="Q6">
         <v>4.794796308605445</v>
@@ -815,10 +815,10 @@
         <v>43.15316677744899</v>
       </c>
       <c r="S6">
-        <v>0.4068628394506831</v>
+        <v>0.2905458192596233</v>
       </c>
       <c r="T6">
-        <v>0.406862839450683</v>
+        <v>0.2905458192596233</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -847,10 +847,10 @@
         <v>6.569107</v>
       </c>
       <c r="I7">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="J7">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -859,28 +859,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="N7">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="O7">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="P7">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="Q7">
-        <v>2.298065592504555</v>
+        <v>3.928747868649555</v>
       </c>
       <c r="R7">
-        <v>20.682590332541</v>
+        <v>35.35873081784599</v>
       </c>
       <c r="S7">
-        <v>0.1950025469345249</v>
+        <v>0.2380666861932413</v>
       </c>
       <c r="T7">
-        <v>0.1950025469345248</v>
+        <v>0.2380666861932413</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -903,46 +903,46 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="H8">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="I8">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="J8">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="K8">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="L8">
-        <v>0.6666666666666666</v>
+        <v>0.3333333333333333</v>
       </c>
       <c r="M8">
-        <v>0.1937093333333333</v>
+        <v>0.078459</v>
       </c>
       <c r="N8">
-        <v>0.581128</v>
+        <v>0.235377</v>
       </c>
       <c r="O8">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="P8">
-        <v>0.05642732702716401</v>
+        <v>0.01931367871928443</v>
       </c>
       <c r="Q8">
-        <v>0.2032955562515555</v>
+        <v>0.140770562434</v>
       </c>
       <c r="R8">
-        <v>1.829660006264</v>
+        <v>1.266935061906</v>
       </c>
       <c r="S8">
-        <v>0.01725066132960942</v>
+        <v>0.008530143046247616</v>
       </c>
       <c r="T8">
-        <v>0.01725066132960942</v>
+        <v>0.008530143046247617</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -965,16 +965,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="H9">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="I9">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="J9">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -989,22 +989,22 @@
         <v>6.569107</v>
       </c>
       <c r="O9">
-        <v>0.637858008847332</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="P9">
-        <v>0.6378580088473319</v>
+        <v>0.5390230229402296</v>
       </c>
       <c r="Q9">
-        <v>2.298065592504555</v>
+        <v>3.928747868649555</v>
       </c>
       <c r="R9">
-        <v>20.682590332541</v>
+        <v>35.35873081784599</v>
       </c>
       <c r="S9">
-        <v>0.1950025469345249</v>
+        <v>0.2380666861932413</v>
       </c>
       <c r="T9">
-        <v>0.1950025469345248</v>
+        <v>0.2380666861932413</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1027,16 +1027,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="H10">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="I10">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="J10">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1045,28 +1045,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>1.049487666666667</v>
+        <v>1.794192666666667</v>
       </c>
       <c r="N10">
-        <v>3.148463</v>
+        <v>5.382578</v>
       </c>
       <c r="O10">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="P10">
-        <v>0.305714664125504</v>
+        <v>0.441663298340486</v>
       </c>
       <c r="Q10">
-        <v>1.101424362485444</v>
+        <v>3.219127325120444</v>
       </c>
       <c r="R10">
-        <v>9.912819262369</v>
+        <v>28.972145926084</v>
       </c>
       <c r="S10">
-        <v>0.09346145586136974</v>
+        <v>0.1950664691009971</v>
       </c>
       <c r="T10">
-        <v>0.09346145586136974</v>
+        <v>0.1950664691009971</v>
       </c>
     </row>
   </sheetData>
